--- a/public/res/leaderboards/Round 3/Beginner.xlsx
+++ b/public/res/leaderboards/Round 3/Beginner.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hamzaqureshi/Documents/Programming/Python/poker-tournament-leaderboard/public/res/leaderboards/Round 3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20101A0F-0F12-744A-9A76-C659BFA809C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45B5FC9C-2C53-8A49-B63E-AE78CBCFF8B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3260" yWindow="2160" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,154 +22,154 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
   <si>
+    <t>Round 1</t>
+  </si>
+  <si>
+    <t>Round 2</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Kai Ze Lim</t>
+  </si>
+  <si>
+    <t>Long Ha</t>
+  </si>
+  <si>
+    <t>Zeren Shen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sanjay Ravichandran </t>
+  </si>
+  <si>
+    <t>Amery Caleb Atinon</t>
+  </si>
+  <si>
+    <t>Yong Jun Loo</t>
+  </si>
+  <si>
+    <t>YuCheng Chien</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tanmay Shewale </t>
+  </si>
+  <si>
+    <t>Yunlin P‚ÄÜan</t>
+  </si>
+  <si>
+    <t>Sean Bellato</t>
+  </si>
+  <si>
+    <t>Eugene Yap</t>
+  </si>
+  <si>
+    <t>Hong Sheng Quah</t>
+  </si>
+  <si>
+    <t>Kevin Yu</t>
+  </si>
+  <si>
+    <t>Zetong Zhang</t>
+  </si>
+  <si>
+    <t>Hao Duong</t>
+  </si>
+  <si>
+    <t>Ray chng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cheng Sheng La </t>
+  </si>
+  <si>
+    <t>Justin Qiang</t>
+  </si>
+  <si>
+    <t>Ha Hwei Keat</t>
+  </si>
+  <si>
+    <t>Vik Ayyasamy Sivakumar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Owen Vandegraaff </t>
+  </si>
+  <si>
+    <t>Kodai Shichida</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sean Tan Yuheng </t>
+  </si>
+  <si>
+    <t>Josh Burke</t>
+  </si>
+  <si>
+    <t>Edwin Zou</t>
+  </si>
+  <si>
+    <t>Will Ho</t>
+  </si>
+  <si>
+    <t>Monil Bhatt</t>
+  </si>
+  <si>
+    <t>Justin Alexander T. Sy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ashwin Seshadari </t>
+  </si>
+  <si>
+    <t>Kar Way Tan</t>
+  </si>
+  <si>
+    <t>Sinha Dayarathne</t>
+  </si>
+  <si>
+    <t>Deniz uragun</t>
+  </si>
+  <si>
+    <t>Goutham Peddireddy</t>
+  </si>
+  <si>
+    <t>Henry zhang</t>
+  </si>
+  <si>
+    <t>Edward Howells</t>
+  </si>
+  <si>
+    <t>Coco Yan</t>
+  </si>
+  <si>
+    <t>Ryan Cheng Hong Khoo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lucy Liu </t>
+  </si>
+  <si>
+    <t>xinkai zhou</t>
+  </si>
+  <si>
+    <t>Yeo Zheng Xian</t>
+  </si>
+  <si>
+    <t>Qing Ye</t>
+  </si>
+  <si>
+    <t>Vinay Panicker</t>
+  </si>
+  <si>
+    <t>James Patterson</t>
+  </si>
+  <si>
+    <t>Keji Yan</t>
+  </si>
+  <si>
+    <t>Nivethan Iyer</t>
+  </si>
+  <si>
     <t>#</t>
   </si>
   <si>
-    <t>Round 1</t>
-  </si>
-  <si>
-    <t>Round 2</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>Kai Ze Lim</t>
-  </si>
-  <si>
-    <t>Long Ha</t>
-  </si>
-  <si>
-    <t>Zeren Shen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sanjay Ravichandran </t>
-  </si>
-  <si>
-    <t>Amery Caleb Atinon</t>
-  </si>
-  <si>
-    <t>Yong Jun Loo</t>
-  </si>
-  <si>
-    <t>YuCheng Chien</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tanmay Shewale </t>
-  </si>
-  <si>
-    <t>Yunlin P‚ÄÜan</t>
-  </si>
-  <si>
-    <t>Sean Bellato</t>
-  </si>
-  <si>
-    <t>Eugene Yap</t>
-  </si>
-  <si>
-    <t>Hong Sheng Quah</t>
-  </si>
-  <si>
-    <t>Kevin Yu</t>
-  </si>
-  <si>
-    <t>Zetong Zhang</t>
-  </si>
-  <si>
-    <t>Hao Duong</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cheng Sheng La </t>
-  </si>
-  <si>
-    <t>Justin Qiang</t>
-  </si>
-  <si>
-    <t>Ha Hwei Keat</t>
-  </si>
-  <si>
-    <t>Vik Ayyasamy Sivakumar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Owen Vandegraaff </t>
-  </si>
-  <si>
-    <t>Kodai Shichida</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sean Tan Yuheng </t>
-  </si>
-  <si>
-    <t>Josh Burke</t>
-  </si>
-  <si>
-    <t>Edwin Zou</t>
-  </si>
-  <si>
-    <t>Will Ho</t>
-  </si>
-  <si>
-    <t>Monil Bhatt</t>
-  </si>
-  <si>
-    <t>Justin Alexander T. Sy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ashwin Seshadari </t>
-  </si>
-  <si>
-    <t>Kar Way Tan</t>
-  </si>
-  <si>
-    <t>Sinha Dayarathne</t>
-  </si>
-  <si>
-    <t>Keji Yan</t>
-  </si>
-  <si>
-    <t>Goutham Peddireddy</t>
-  </si>
-  <si>
-    <t>Edward Howells</t>
-  </si>
-  <si>
-    <t>Coco Yan</t>
-  </si>
-  <si>
-    <t>Vinay Panicker</t>
-  </si>
-  <si>
-    <t>James Patterson</t>
-  </si>
-  <si>
-    <t>Ryan Cheng Hong Khoo</t>
-  </si>
-  <si>
-    <t>Nivethan Iyer</t>
-  </si>
-  <si>
-    <t>Qing Ye</t>
-  </si>
-  <si>
-    <t>Yeo Zheng Xian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lucy Liu </t>
-  </si>
-  <si>
     <t>Name</t>
-  </si>
-  <si>
-    <t>Henry Zhang</t>
-  </si>
-  <si>
-    <t>Deniz Uragun</t>
-  </si>
-  <si>
-    <t>Xinkai Zhou</t>
-  </si>
-  <si>
-    <t>Ray Cheng</t>
   </si>
 </sst>
 </file>
@@ -1014,26 +1014,26 @@
   <dimension ref="A1:E47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -1041,13 +1041,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2">
-        <v>72900</v>
+        <v>42900</v>
       </c>
       <c r="D2">
-        <v>87400</v>
+        <v>57400</v>
       </c>
       <c r="E2">
         <v>100300</v>
@@ -1058,13 +1058,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3">
-        <v>32500</v>
+        <v>2500</v>
       </c>
       <c r="D3">
-        <v>114700</v>
+        <v>84700</v>
       </c>
       <c r="E3">
         <v>87200</v>
@@ -1075,10 +1075,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" s="1">
-        <v>145200</v>
+        <v>115200</v>
       </c>
       <c r="D4">
         <v>-30000</v>
@@ -1092,13 +1092,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5">
         <v>-30000</v>
       </c>
       <c r="D5">
-        <v>116000</v>
+        <v>86000</v>
       </c>
       <c r="E5">
         <v>56000</v>
@@ -1109,13 +1109,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" s="1">
-        <v>35000</v>
+        <v>5000</v>
       </c>
       <c r="D6">
-        <v>71800</v>
+        <v>41800</v>
       </c>
       <c r="E6">
         <v>46800</v>
@@ -1126,10 +1126,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7">
-        <v>97400</v>
+        <v>67400</v>
       </c>
       <c r="D7">
         <v>-30000</v>
@@ -1143,13 +1143,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8">
         <v>-30000</v>
       </c>
       <c r="D8">
-        <v>93300</v>
+        <v>63300</v>
       </c>
       <c r="E8">
         <v>33300</v>
@@ -1160,10 +1160,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9">
-        <v>84400</v>
+        <v>54400</v>
       </c>
       <c r="D9">
         <v>-30000</v>
@@ -1177,13 +1177,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10">
         <v>-30000</v>
       </c>
       <c r="D10">
-        <v>80000</v>
+        <v>50000</v>
       </c>
       <c r="E10">
         <v>20000</v>
@@ -1194,10 +1194,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11">
-        <v>75700</v>
+        <v>45700</v>
       </c>
       <c r="D11">
         <v>-30000</v>
@@ -1211,13 +1211,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12">
         <v>-30000</v>
       </c>
       <c r="D12">
-        <v>68400</v>
+        <v>38400</v>
       </c>
       <c r="E12">
         <v>8400</v>
@@ -1228,10 +1228,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13">
-        <v>63900</v>
+        <v>33900</v>
       </c>
       <c r="D13">
         <v>-30000</v>
@@ -1245,13 +1245,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14">
         <v>-30000</v>
       </c>
       <c r="D14">
-        <v>60900</v>
+        <v>30900</v>
       </c>
       <c r="E14">
         <v>900</v>
@@ -1259,13 +1259,13 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C15">
-        <v>52100</v>
+        <v>22100</v>
       </c>
       <c r="D15">
         <v>-30000</v>
@@ -1276,16 +1276,16 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C16">
-        <v>48900</v>
+        <v>18900</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>-30000</v>
       </c>
       <c r="E16">
         <v>-11100</v>
@@ -1293,13 +1293,13 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="C17">
-        <v>48400</v>
+        <v>18400</v>
       </c>
       <c r="D17">
         <v>-30000</v>
@@ -1310,13 +1310,13 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18" t="s">
         <v>19</v>
       </c>
       <c r="C18">
-        <v>40100</v>
+        <v>10100</v>
       </c>
       <c r="D18">
         <v>-30000</v>
@@ -1327,13 +1327,13 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19" t="s">
         <v>20</v>
       </c>
       <c r="C19">
-        <v>38300</v>
+        <v>8300</v>
       </c>
       <c r="D19">
         <v>-30000</v>
@@ -1344,13 +1344,13 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20" t="s">
         <v>21</v>
       </c>
       <c r="C20">
-        <v>38200</v>
+        <v>8200</v>
       </c>
       <c r="D20">
         <v>-30000</v>
@@ -1361,16 +1361,16 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B21" t="s">
         <v>22</v>
       </c>
       <c r="C21">
-        <v>37700</v>
+        <v>7700</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>-30000</v>
       </c>
       <c r="E21">
         <v>-22300</v>
@@ -1378,13 +1378,13 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B22" t="s">
         <v>23</v>
       </c>
       <c r="C22">
-        <v>35600</v>
+        <v>5600</v>
       </c>
       <c r="D22">
         <v>-30000</v>
@@ -1395,13 +1395,13 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>24</v>
       </c>
       <c r="C23">
-        <v>32700</v>
+        <v>2700</v>
       </c>
       <c r="D23">
         <v>-30000</v>
@@ -1412,7 +1412,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
         <v>25</v>
@@ -1421,7 +1421,7 @@
         <v>-30000</v>
       </c>
       <c r="D24">
-        <v>26900</v>
+        <v>-3100</v>
       </c>
       <c r="E24">
         <v>-33100</v>
@@ -1429,16 +1429,16 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
       </c>
       <c r="C25">
-        <v>26400</v>
+        <v>-3600</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>-30000</v>
       </c>
       <c r="E25">
         <v>-33600</v>
@@ -1446,16 +1446,16 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B26" t="s">
         <v>27</v>
       </c>
       <c r="C26">
-        <v>25300</v>
+        <v>-4700</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>-30000</v>
       </c>
       <c r="E26">
         <v>-34700</v>
@@ -1463,13 +1463,13 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B27" t="s">
         <v>28</v>
       </c>
       <c r="C27">
-        <v>24800</v>
+        <v>-5200</v>
       </c>
       <c r="D27">
         <v>-30000</v>
@@ -1480,16 +1480,16 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B28" t="s">
         <v>29</v>
       </c>
       <c r="C28">
-        <v>23600</v>
+        <v>-6400</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>-30000</v>
       </c>
       <c r="E28">
         <v>-36400</v>
@@ -1497,16 +1497,16 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B29" t="s">
         <v>30</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>-30000</v>
       </c>
       <c r="D29">
-        <v>11100</v>
+        <v>-18900</v>
       </c>
       <c r="E29">
         <v>-48900</v>
@@ -1514,13 +1514,13 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B30" t="s">
         <v>31</v>
       </c>
       <c r="C30">
-        <v>9100</v>
+        <v>-20900</v>
       </c>
       <c r="D30">
         <v>-30000</v>
@@ -1531,13 +1531,13 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B31" t="s">
         <v>32</v>
       </c>
       <c r="C31" s="1">
-        <v>8400</v>
+        <v>-21600</v>
       </c>
       <c r="D31">
         <v>-30000</v>
@@ -1548,10 +1548,10 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="C32">
         <v>-30000</v>
@@ -1565,10 +1565,10 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C33">
         <v>-30000</v>
@@ -1582,10 +1582,10 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C34">
         <v>-30000</v>
@@ -1599,10 +1599,10 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C35">
         <v>-30000</v>
@@ -1616,10 +1616,10 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C36">
         <v>-30000</v>
@@ -1633,13 +1633,13 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>-30000</v>
       </c>
       <c r="D37">
         <v>-30000</v>
@@ -1650,10 +1650,10 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C38">
         <v>-30000</v>
@@ -1667,10 +1667,10 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C39">
         <v>-30000</v>
@@ -1684,10 +1684,10 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C40">
         <v>-30000</v>
@@ -1701,13 +1701,13 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>-30000</v>
       </c>
       <c r="D41">
         <v>-30000</v>
@@ -1718,13 +1718,13 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>-30000</v>
       </c>
       <c r="D42">
         <v>-30000</v>
@@ -1735,10 +1735,10 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C43">
         <v>-30000</v>
@@ -1752,10 +1752,10 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="C44">
         <v>-30000</v>
@@ -1769,10 +1769,10 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C45">
         <v>-30000</v>
@@ -1786,10 +1786,10 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="C46">
         <v>-30000</v>
@@ -1803,16 +1803,16 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C47">
         <v>-30000</v>
       </c>
       <c r="D47">
-        <v>-3000030000</v>
+        <v>-30000</v>
       </c>
       <c r="E47">
         <v>-60000</v>
